--- a/public/uploads/Test for extract .xlsx
+++ b/public/uploads/Test for extract .xlsx
@@ -1,36 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="630" windowWidth="15975" windowHeight="7365"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>SL</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>Sigma Technologies</t>
   </si>
   <si>
@@ -140,36 +128,85 @@
   </si>
   <si>
     <t>jungletv.com</t>
+  </si>
+  <si>
+    <t>roman</t>
+  </si>
+  <si>
+    <t>roman@gmail.com</t>
+  </si>
+  <si>
+    <t>cto</t>
+  </si>
+  <si>
+    <t>he is a cto</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>contactParson</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd-mmm-yyyy"/>
-    <numFmt numFmtId="165" formatCode="d-mmm-yyyy h:mm am/pm"/>
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="d\-mmm\-yyyy\ h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,51 +214,54 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -411,93 +451,114 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.5"/>
-    <col customWidth="1" min="4" max="4" width="22.0"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2">
-        <v>2.120522368687E12</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+        <v>2120522368687</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
-        <v>2.12522798585E11</v>
+        <v>212522798585</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -506,24 +567,24 @@
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2">
-        <v>4.922194604754E12</v>
+        <v>4922194604754</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -532,24 +593,24 @@
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>4.905115909197E13</v>
+        <v>49051159091970</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -558,24 +619,24 @@
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2">
-        <v>3.3184178687E10</v>
+        <v>33184178687</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -584,24 +645,24 @@
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2">
-        <v>2.33369967E8</v>
+        <v>233369967</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -610,24 +671,24 @@
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -636,21 +697,21 @@
       <c r="K8" s="4"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -660,24 +721,24 @@
       <c r="K9" s="1"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2">
-        <v>1.2105825316E10</v>
+        <v>12105825316</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -686,24 +747,24 @@
       <c r="K10" s="1"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2">
-        <v>1.9179230559E10</v>
+        <v>19179230559</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -712,24 +773,24 @@
       <c r="K11" s="1"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2">
-        <v>1.2063301049E10</v>
+        <v>12063301049</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -738,24 +799,24 @@
       <c r="K12" s="1"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F13" s="2">
-        <v>1.4028199019E10</v>
+        <v>14028199019</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -764,24 +825,24 @@
       <c r="K13" s="1"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F14" s="2">
-        <v>1.3015850068E10</v>
+        <v>13015850068</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -790,24 +851,24 @@
       <c r="K14" s="1"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2">
-        <v>1.8323960886E10</v>
+        <v>18323960886</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -816,24 +877,24 @@
       <c r="K15" s="1"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2">
-        <v>1.7723700043E10</v>
+        <v>17723700043</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -844,20 +905,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D4"/>
-    <hyperlink r:id="rId4" ref="D6"/>
-    <hyperlink r:id="rId5" ref="D7"/>
-    <hyperlink r:id="rId6" ref="D8"/>
-    <hyperlink r:id="rId7" ref="D10"/>
-    <hyperlink r:id="rId8" ref="D11"/>
-    <hyperlink r:id="rId9" ref="D12"/>
-    <hyperlink r:id="rId10" ref="D13"/>
-    <hyperlink r:id="rId11" ref="D14"/>
-    <hyperlink r:id="rId12" ref="D15"/>
-    <hyperlink r:id="rId13" ref="D16"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="H2" r:id="rId14"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>